--- a/Workbook/Experiement Results.xlsx
+++ b/Workbook/Experiement Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n01545735/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F132C2-BAAC-5143-9E75-0255C67F7B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0B4C5-6F90-3046-8918-3522F29E35C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{CC035A2A-ABB5-1042-B421-453D7CF61FFA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{CC035A2A-ABB5-1042-B421-453D7CF61FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>KM_estimate</t>
   </si>
@@ -93,14 +93,24 @@
   <si>
     <t>Fix</t>
   </si>
+  <si>
+    <t>{'KM_estimate': {0.0: 1.0, 66.0: 0.147239263803681, 68.0: 0.08588957055214726, 69.0: 0.006134969325153374, 6.0: 0.9938650306748467, 7.0: 0.98159509202454, 9.0: 0.9631901840490799, 75.0: 0.0, 13.0: 0.94478527607362, 15.0: 0.9325153374233129, 17.0: 0.9263803680981595, 19.0: 0.9079754601226995, 22.0: 0.883435582822086, 26.0: 0.8527607361963192, 29.0: 0.8220858895705523, 32.0: 0.8159509202453991, 33.0: 0.7975460122699388, 36.0: 0.785276073619632, 38.0: 0.7730061349693251, 41.0: 0.7300613496932518, 43.0: 0.7239263803680984, 45.0: 0.6625766871165646, 47.0: 0.656441717791411, 48.0: 0.6073619631901842, 51.0: 0.5889570552147241, 53.0: 0.5460122699386505, 54.0: 0.5337423312883436, 56.0: 0.42331288343558293, 58.0: 0.39877300613496935, 60.0: 0.30061349693251543, 61.0: 0.2331288343558283, 62.0: 0.22085889570552156, 63.0: 0.16564417177914115}}</t>
+  </si>
+  <si>
+    <t>{'KM_estimate': {0.0: 1.0, 66.0: 0.147239263803681, 68.0: 0.08588957055214726, 69.0: 0.00613496932515338, 6.0: 0.9938650306748471, 7.0: 0.9815950920245395, 9.0: 0.9631901840490803, 75.0: 0.0, 13.0: 0.94478527607362, 15.0: 0.9325153374233129, 17.0: 0.9263803680981595, 19.0: 0.9079754601226999, 22.0: 0.883435582822086, 26.0: 0.8527607361963188, 29.0: 0.822085889570552, 32.0: 0.8159509202453987, 33.0: 0.7975460122699385, 36.0: 0.7852760736196317, 38.0: 0.7730061349693251, 41.0: 0.7300613496932518, 43.0: 0.7239263803680984, 45.0: 0.6625766871165646, 47.0: 0.656441717791411, 48.0: 0.6073619631901842, 51.0: 0.5889570552147241, 53.0: 0.5460122699386505, 54.0: 0.5337423312883436, 56.0: 0.42331288343558293, 58.0: 0.39877300613496935, 60.0: 0.30061349693251543, 61.0: 0.2331288343558282, 62.0: 0.22085889570552145, 63.0: 0.16564417177914112}}</t>
+  </si>
+  <si>
+    <t>{'KM_estimate': {0.0: 1.0, 66.0: 0.14723926380368094, 68.0: 0.08588957055214722, 69.0: 0.006134969325153374, 6.0: 0.9938650306748462, 7.0: 0.9815950920245395, 9.0: 0.9631901840490794, 75.0: 0.0, 13.0: 0.9447852760736192, 15.0: 0.9325153374233129, 17.0: 0.9263803680981595, 19.0: 0.907975460122699, 22.0: 0.883435582822086, 26.0: 0.8527607361963188, 29.0: 0.822085889570552, 32.0: 0.8159509202453987, 33.0: 0.7975460122699385, 36.0: 0.7852760736196317, 38.0: 0.7730061349693251, 41.0: 0.7300613496932518, 43.0: 0.7239263803680978, 45.0: 0.6625766871165646, 47.0: 0.6564417177914108, 48.0: 0.607361963190184, 51.0: 0.5889570552147239, 53.0: 0.5460122699386502, 54.0: 0.5337423312883436, 56.0: 0.42331288343558277, 58.0: 0.3987730061349692, 60.0: 0.30061349693251527, 61.0: 0.2331288343558282, 62.0: 0.22085889570552145, 63.0: 0.16564417177914112}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -176,24 +186,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2239,2974 +2254,4044 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA5F901-4491-104B-9045-AF1D7194CB68}">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:X324"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="L247" sqref="L247"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="8"/>
-    <col min="2" max="2" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="8"/>
-    <col min="5" max="5" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="8">
         <v>0.25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>0</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>6</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0.993865</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>7</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>7</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0.98773</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>9</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>9</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0.96921000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>13</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>13</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.95069000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>15</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>15</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0.93834399999999996</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>17</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>17</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0.93217000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>19</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>19</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0.91364999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>22</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>0.97297299999999998</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>22</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>0.888957</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>26</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>0.94594599999999995</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>26</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>0.85809000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>29</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>0.91812400000000005</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>29</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>0.82722399999999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>32</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>0.91812400000000005</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>32</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0.82105099999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>33</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>0.91812400000000005</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>33</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>0.80253099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>36</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>0.91812400000000005</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>36</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>0.790184</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>38</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>0.91812400000000005</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>38</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>0.777837</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>41</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>0.88850700000000005</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>41</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>0.73462400000000005</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>43</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>0.88850700000000005</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>43</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>0.72845099999999996</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>45</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>0.82723100000000005</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>45</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>0.67289100000000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>47</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>0.82723100000000005</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>47</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>0.66666099999999995</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>48</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>0.763598</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>48</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>0.61681699999999995</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>51</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>0.763598</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>51</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>0.59812500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>53</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>0.73178100000000001</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>53</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>0.554512</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>54</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>0.73178100000000001</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>54</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>0.54205099999999995</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>56</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>0.59239399999999998</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>56</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>0.42990299999999998</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>58</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>0.55754700000000001</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>58</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>0.40498099999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>60</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>0.45300699999999999</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>60</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>0.31152400000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>61</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>0.37750600000000001</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>61</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>0.254305</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>62</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>0.37750600000000001</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>62</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>0.240921</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>63</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>0.29361599999999999</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>63</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>0.18068999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>66</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>0.29361599999999999</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>66</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>0.16061400000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>68</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>0.195744</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>68</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>0.100384</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>69</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>0</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>69</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>1.4341E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>75</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>1</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>75</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>0.5</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>0</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>1</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>0</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>6</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>1</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>6</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>0.993865</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>7</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>1</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>7</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>0.98773</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <v>9</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>0.98750000000000004</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>9</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>0.96921000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
+      <c r="A44" s="9">
         <v>13</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>0.97484000000000004</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>13</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>0.95069000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>15</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>0.96217900000000001</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>15</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <v>0.93834399999999996</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="10">
+      <c r="A46" s="9">
         <v>17</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>0.96217900000000001</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>17</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <v>0.93217000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="10">
+      <c r="A47" s="9">
         <v>19</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>0.94935000000000003</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>19</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <v>0.91364999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="10">
+      <c r="A48" s="9">
         <v>22</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>0.92369199999999996</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>22</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <v>0.888957</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <v>26</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>0.898034</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>26</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <v>0.85809000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="10">
+      <c r="A50" s="9">
         <v>29</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>0.872004</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>29</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <v>0.82722399999999996</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <v>32</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>0.872004</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>32</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <v>0.82105099999999998</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="10">
+      <c r="A52" s="9">
         <v>33</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>0.858792</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>33</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <v>0.80253099999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
+      <c r="A53" s="9">
         <v>36</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>0.84558</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>36</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <v>0.790184</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
+      <c r="A54" s="9">
         <v>38</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>0.832368</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>38</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <v>0.777837</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
+      <c r="A55" s="9">
         <v>41</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>0.79273099999999996</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>41</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <v>0.73462400000000005</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
+      <c r="A56" s="9">
         <v>43</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <v>0.79273099999999996</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>43</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <v>0.72845099999999996</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="10">
+      <c r="A57" s="9">
         <v>45</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>0.73898699999999995</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>45</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>0.67289100000000002</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
+      <c r="A58" s="9">
         <v>47</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>0.73898699999999995</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="9">
         <v>47</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <v>0.66666099999999995</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
+      <c r="A59" s="9">
         <v>48</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>0.68321399999999999</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>48</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <v>0.61681699999999995</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="10">
+      <c r="A60" s="9">
         <v>51</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>0.66927099999999995</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>51</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <v>0.59812500000000002</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="10">
+      <c r="A61" s="9">
         <v>53</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>0.62744100000000003</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>53</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <v>0.554512</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <v>54</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>0.61318099999999998</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>54</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <v>0.54205099999999995</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="10">
+      <c r="A63" s="9">
         <v>56</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>0.48484100000000002</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="9">
         <v>56</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="10">
         <v>0.42990299999999998</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
+      <c r="A64" s="9">
         <v>58</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="10">
         <v>0.45632099999999998</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>58</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <v>0.40498099999999998</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="10">
+      <c r="A65" s="9">
         <v>60</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>0.35650100000000001</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>60</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <v>0.31152400000000002</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="10">
+      <c r="A66" s="9">
         <v>61</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <v>0.29708400000000001</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <v>61</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <v>0.254305</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="10">
+      <c r="A67" s="9">
         <v>62</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>0.28144799999999998</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>62</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <v>0.240921</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="10">
+      <c r="A68" s="9">
         <v>63</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="10">
         <v>0.21890399999999999</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>63</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <v>0.18068999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="10">
+      <c r="A69" s="9">
         <v>66</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="10">
         <v>0.20206499999999999</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>66</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="10">
         <v>0.16061400000000001</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="10">
+      <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="10">
         <v>0.13471</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>68</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <v>0.100384</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="10">
+      <c r="A71" s="9">
         <v>69</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="10">
         <v>1.9244000000000001E-2</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>69</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <v>1.4341E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="10">
+      <c r="A72" s="9">
         <v>75</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>1</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>75</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>0.75</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="10">
+      <c r="A76" s="9">
         <v>0</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="10">
         <v>1</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>0</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="10">
+      <c r="A77" s="9">
         <v>6</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="10">
         <v>1</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="9">
         <v>6</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="10">
         <v>0.993865</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="10">
+      <c r="A78" s="9">
         <v>7</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="10">
         <v>1</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="9">
         <v>7</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="10">
         <v>0.98773</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="10">
+      <c r="A79" s="9">
         <v>9</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <v>0.98333300000000001</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="9">
         <v>9</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="10">
         <v>0.96921000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="10">
+      <c r="A80" s="9">
         <v>13</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="10">
         <v>0.96652400000000005</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <v>13</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="10">
         <v>0.95069000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="10">
+      <c r="A81" s="9">
         <v>15</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="10">
         <v>0.95811999999999997</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="9">
         <v>15</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="10">
         <v>0.93834399999999996</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="10">
+      <c r="A82" s="9">
         <v>17</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="10">
         <v>0.95811999999999997</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="9">
         <v>17</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="10">
         <v>0.93217000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="10">
+      <c r="A83" s="9">
         <v>19</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="10">
         <v>0.94116200000000005</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>19</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="10">
         <v>0.91364999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="10">
+      <c r="A84" s="9">
         <v>22</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="10">
         <v>0.91572500000000001</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <v>22</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="10">
         <v>0.888957</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="10">
+      <c r="A85" s="9">
         <v>26</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85" s="10">
         <v>0.89028799999999997</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>26</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="10">
         <v>0.85809000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="10">
+      <c r="A86" s="9">
         <v>29</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86" s="10">
         <v>0.86460700000000001</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>29</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="10">
         <v>0.82722399999999996</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="10">
+      <c r="A87" s="9">
         <v>32</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="10">
         <v>0.86460700000000001</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>32</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E87" s="10">
         <v>0.82105099999999998</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="10">
+      <c r="A88" s="9">
         <v>33</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="10">
         <v>0.84714</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>33</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E88" s="10">
         <v>0.80253099999999999</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="10">
+      <c r="A89" s="9">
         <v>36</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="10">
         <v>0.83840700000000001</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>36</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E89" s="10">
         <v>0.790184</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="10">
+      <c r="A90" s="9">
         <v>38</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="10">
         <v>0.82967299999999999</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>38</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="10">
         <v>0.777837</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="10">
+      <c r="A91" s="9">
         <v>41</v>
       </c>
-      <c r="B91" s="11">
+      <c r="B91" s="10">
         <v>0.78554199999999996</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <v>41</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="10">
         <v>0.73462400000000005</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="10">
+      <c r="A92" s="9">
         <v>43</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92" s="10">
         <v>0.78554199999999996</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <v>43</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="10">
         <v>0.72845099999999996</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="10">
+      <c r="A93" s="9">
         <v>45</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B93" s="10">
         <v>0.73198200000000002</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>45</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E93" s="10">
         <v>0.67289100000000002</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="10">
+      <c r="A94" s="9">
         <v>47</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94" s="10">
         <v>0.73198200000000002</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <v>47</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="10">
         <v>0.66666099999999995</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="10">
+      <c r="A95" s="9">
         <v>48</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95" s="10">
         <v>0.67708299999999999</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="9">
         <v>48</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="10">
         <v>0.61681699999999995</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="10">
+      <c r="A96" s="9">
         <v>51</v>
       </c>
-      <c r="B96" s="11">
+      <c r="B96" s="10">
         <v>0.65878400000000004</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="9">
         <v>51</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="10">
         <v>0.59812500000000002</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="10">
+      <c r="A97" s="9">
         <v>53</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="10">
         <v>0.613035</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="9">
         <v>53</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="10">
         <v>0.554512</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="10">
+      <c r="A98" s="9">
         <v>54</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="10">
         <v>0.603746</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="9">
         <v>54</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="10">
         <v>0.54205099999999995</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="10">
+      <c r="A99" s="9">
         <v>56</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99" s="10">
         <v>0.48299700000000001</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="9">
         <v>56</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="10">
         <v>0.42990299999999998</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="10">
+      <c r="A100" s="9">
         <v>58</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B100" s="10">
         <v>0.45458599999999999</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="9">
         <v>58</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="10">
         <v>0.40498099999999998</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="10">
+      <c r="A101" s="9">
         <v>60</v>
       </c>
-      <c r="B101" s="11">
+      <c r="B101" s="10">
         <v>0.35041</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <v>60</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="10">
         <v>0.31152400000000002</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="10">
+      <c r="A102" s="9">
         <v>61</v>
       </c>
-      <c r="B102" s="11">
+      <c r="B102" s="10">
         <v>0.29200799999999999</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="9">
         <v>61</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="10">
         <v>0.254305</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="10">
+      <c r="A103" s="9">
         <v>62</v>
       </c>
-      <c r="B103" s="11">
+      <c r="B103" s="10">
         <v>0.28157900000000002</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="9">
         <v>62</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="10">
         <v>0.240921</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="10">
+      <c r="A104" s="9">
         <v>63</v>
       </c>
-      <c r="B104" s="11">
+      <c r="B104" s="10">
         <v>0.21900600000000001</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="9">
         <v>63</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="10">
         <v>0.18068999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="10">
+      <c r="A105" s="9">
         <v>66</v>
       </c>
-      <c r="B105" s="11">
+      <c r="B105" s="10">
         <v>0.197105</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="9">
         <v>66</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105" s="10">
         <v>0.16061400000000001</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="10">
+      <c r="A106" s="9">
         <v>68</v>
       </c>
-      <c r="B106" s="11">
+      <c r="B106" s="10">
         <v>0.13140399999999999</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="9">
         <v>68</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="10">
         <v>0.100384</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="10">
+      <c r="A107" s="9">
         <v>69</v>
       </c>
-      <c r="B107" s="11">
+      <c r="B107" s="10">
         <v>1.3140000000000001E-2</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="9">
         <v>69</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107" s="10">
         <v>1.4341E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="10">
+      <c r="A108" s="9">
         <v>75</v>
       </c>
-      <c r="B108" s="11">
+      <c r="B108" s="10">
         <v>1</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="9">
         <v>75</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="8">
         <v>1</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="10">
+      <c r="A113" s="9">
         <v>0</v>
       </c>
-      <c r="B113" s="11">
+      <c r="B113" s="10">
         <v>1</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="9">
         <v>0</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E113" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="10">
+      <c r="A114" s="9">
         <v>6</v>
       </c>
-      <c r="B114" s="11">
+      <c r="B114" s="10">
         <v>0.993865</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="9">
         <v>6</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114" s="10">
         <v>0.993865</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="10">
+      <c r="A115" s="9">
         <v>7</v>
       </c>
-      <c r="B115" s="11">
+      <c r="B115" s="10">
         <v>0.98773</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="9">
         <v>7</v>
       </c>
-      <c r="E115" s="11">
+      <c r="E115" s="10">
         <v>0.98773</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="10">
+      <c r="A116" s="9">
         <v>9</v>
       </c>
-      <c r="B116" s="11">
+      <c r="B116" s="10">
         <v>0.96921000000000002</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="9">
         <v>9</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116" s="10">
         <v>0.96921000000000002</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="10">
+      <c r="A117" s="9">
         <v>13</v>
       </c>
-      <c r="B117" s="11">
+      <c r="B117" s="10">
         <v>0.95069000000000004</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="9">
         <v>13</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117" s="10">
         <v>0.95069000000000004</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="10">
+      <c r="A118" s="9">
         <v>15</v>
       </c>
-      <c r="B118" s="11">
+      <c r="B118" s="10">
         <v>0.93834399999999996</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="9">
         <v>15</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E118" s="10">
         <v>0.93834399999999996</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="10">
+      <c r="A119" s="9">
         <v>17</v>
       </c>
-      <c r="B119" s="11">
+      <c r="B119" s="10">
         <v>0.93217000000000005</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="9">
         <v>17</v>
       </c>
-      <c r="E119" s="11">
+      <c r="E119" s="10">
         <v>0.93217000000000005</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="10">
+      <c r="A120" s="9">
         <v>19</v>
       </c>
-      <c r="B120" s="11">
+      <c r="B120" s="10">
         <v>0.91364999999999996</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="9">
         <v>19</v>
       </c>
-      <c r="E120" s="11">
+      <c r="E120" s="10">
         <v>0.91364999999999996</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="10">
+      <c r="A121" s="9">
         <v>22</v>
       </c>
-      <c r="B121" s="11">
+      <c r="B121" s="10">
         <v>0.888957</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D121" s="9">
         <v>22</v>
       </c>
-      <c r="E121" s="11">
+      <c r="E121" s="10">
         <v>0.888957</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="10">
+      <c r="A122" s="9">
         <v>26</v>
       </c>
-      <c r="B122" s="11">
+      <c r="B122" s="10">
         <v>0.85809000000000002</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="9">
         <v>26</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="10">
         <v>0.85809000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="10">
+      <c r="A123" s="9">
         <v>29</v>
       </c>
-      <c r="B123" s="11">
+      <c r="B123" s="10">
         <v>0.82722399999999996</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="9">
         <v>29</v>
       </c>
-      <c r="E123" s="11">
+      <c r="E123" s="10">
         <v>0.82722399999999996</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="10">
+      <c r="A124" s="9">
         <v>32</v>
       </c>
-      <c r="B124" s="11">
+      <c r="B124" s="10">
         <v>0.82105099999999998</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="9">
         <v>32</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="10">
         <v>0.82105099999999998</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="10">
+      <c r="A125" s="9">
         <v>33</v>
       </c>
-      <c r="B125" s="11">
+      <c r="B125" s="10">
         <v>0.80253099999999999</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125" s="9">
         <v>33</v>
       </c>
-      <c r="E125" s="11">
+      <c r="E125" s="10">
         <v>0.80253099999999999</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="10">
+      <c r="A126" s="9">
         <v>36</v>
       </c>
-      <c r="B126" s="11">
+      <c r="B126" s="10">
         <v>0.790184</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126" s="9">
         <v>36</v>
       </c>
-      <c r="E126" s="11">
+      <c r="E126" s="10">
         <v>0.790184</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="10">
+      <c r="A127" s="9">
         <v>38</v>
       </c>
-      <c r="B127" s="11">
+      <c r="B127" s="10">
         <v>0.777837</v>
       </c>
-      <c r="D127" s="10">
+      <c r="D127" s="9">
         <v>38</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E127" s="10">
         <v>0.777837</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="10">
+      <c r="A128" s="9">
         <v>41</v>
       </c>
-      <c r="B128" s="11">
+      <c r="B128" s="10">
         <v>0.73462400000000005</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="9">
         <v>41</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="10">
         <v>0.73462400000000005</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="10">
+      <c r="A129" s="9">
         <v>43</v>
       </c>
-      <c r="B129" s="11">
+      <c r="B129" s="10">
         <v>0.72845099999999996</v>
       </c>
-      <c r="D129" s="10">
+      <c r="D129" s="9">
         <v>43</v>
       </c>
-      <c r="E129" s="11">
+      <c r="E129" s="10">
         <v>0.72845099999999996</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="10">
+      <c r="A130" s="9">
         <v>45</v>
       </c>
-      <c r="B130" s="11">
+      <c r="B130" s="10">
         <v>0.67289100000000002</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D130" s="9">
         <v>45</v>
       </c>
-      <c r="E130" s="11">
+      <c r="E130" s="10">
         <v>0.67289100000000002</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="10">
+      <c r="A131" s="9">
         <v>47</v>
       </c>
-      <c r="B131" s="11">
+      <c r="B131" s="10">
         <v>0.66666099999999995</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D131" s="9">
         <v>47</v>
       </c>
-      <c r="E131" s="11">
+      <c r="E131" s="10">
         <v>0.66666099999999995</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="10">
+      <c r="A132" s="9">
         <v>48</v>
       </c>
-      <c r="B132" s="11">
+      <c r="B132" s="10">
         <v>0.61681699999999995</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D132" s="9">
         <v>48</v>
       </c>
-      <c r="E132" s="11">
+      <c r="E132" s="10">
         <v>0.61681699999999995</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="10">
+      <c r="A133" s="9">
         <v>51</v>
       </c>
-      <c r="B133" s="11">
+      <c r="B133" s="10">
         <v>0.59812500000000002</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="9">
         <v>51</v>
       </c>
-      <c r="E133" s="11">
+      <c r="E133" s="10">
         <v>0.59812500000000002</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="10">
+      <c r="A134" s="9">
         <v>53</v>
       </c>
-      <c r="B134" s="11">
+      <c r="B134" s="10">
         <v>0.554512</v>
       </c>
-      <c r="D134" s="10">
+      <c r="D134" s="9">
         <v>53</v>
       </c>
-      <c r="E134" s="11">
+      <c r="E134" s="10">
         <v>0.554512</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="10">
+      <c r="A135" s="9">
         <v>54</v>
       </c>
-      <c r="B135" s="11">
+      <c r="B135" s="10">
         <v>0.54205099999999995</v>
       </c>
-      <c r="D135" s="10">
+      <c r="D135" s="9">
         <v>54</v>
       </c>
-      <c r="E135" s="11">
+      <c r="E135" s="10">
         <v>0.54205099999999995</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="10">
+      <c r="A136" s="9">
         <v>56</v>
       </c>
-      <c r="B136" s="11">
+      <c r="B136" s="10">
         <v>0.42990299999999998</v>
       </c>
-      <c r="D136" s="10">
+      <c r="D136" s="9">
         <v>56</v>
       </c>
-      <c r="E136" s="11">
+      <c r="E136" s="10">
         <v>0.42990299999999998</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="10">
+      <c r="A137" s="9">
         <v>58</v>
       </c>
-      <c r="B137" s="11">
+      <c r="B137" s="10">
         <v>0.40498099999999998</v>
       </c>
-      <c r="D137" s="10">
+      <c r="D137" s="9">
         <v>58</v>
       </c>
-      <c r="E137" s="11">
+      <c r="E137" s="10">
         <v>0.40498099999999998</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="10">
+      <c r="A138" s="9">
         <v>60</v>
       </c>
-      <c r="B138" s="11">
+      <c r="B138" s="10">
         <v>0.31152400000000002</v>
       </c>
-      <c r="D138" s="10">
+      <c r="D138" s="9">
         <v>60</v>
       </c>
-      <c r="E138" s="11">
+      <c r="E138" s="10">
         <v>0.31152400000000002</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="10">
+      <c r="A139" s="9">
         <v>61</v>
       </c>
-      <c r="B139" s="11">
+      <c r="B139" s="10">
         <v>0.254305</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D139" s="9">
         <v>61</v>
       </c>
-      <c r="E139" s="11">
+      <c r="E139" s="10">
         <v>0.254305</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="10">
+      <c r="A140" s="9">
         <v>62</v>
       </c>
-      <c r="B140" s="11">
+      <c r="B140" s="10">
         <v>0.240921</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D140" s="9">
         <v>62</v>
       </c>
-      <c r="E140" s="11">
+      <c r="E140" s="10">
         <v>0.240921</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="10">
+      <c r="A141" s="9">
         <v>63</v>
       </c>
-      <c r="B141" s="11">
+      <c r="B141" s="10">
         <v>0.18068999999999999</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="9">
         <v>63</v>
       </c>
-      <c r="E141" s="11">
+      <c r="E141" s="10">
         <v>0.18068999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="10">
+      <c r="A142" s="9">
         <v>66</v>
       </c>
-      <c r="B142" s="11">
+      <c r="B142" s="10">
         <v>0.16061400000000001</v>
       </c>
-      <c r="D142" s="10">
+      <c r="D142" s="9">
         <v>66</v>
       </c>
-      <c r="E142" s="11">
+      <c r="E142" s="10">
         <v>0.16061400000000001</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="10">
+      <c r="A143" s="9">
         <v>68</v>
       </c>
-      <c r="B143" s="11">
+      <c r="B143" s="10">
         <v>0.100384</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="9">
         <v>68</v>
       </c>
-      <c r="E143" s="11">
+      <c r="E143" s="10">
         <v>0.100384</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="10">
+      <c r="A144" s="9">
         <v>69</v>
       </c>
-      <c r="B144" s="11">
+      <c r="B144" s="10">
         <v>1.4341E-2</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D144" s="9">
         <v>69</v>
       </c>
-      <c r="E144" s="11">
+      <c r="E144" s="10">
         <v>1.4341E-2</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="10">
+      <c r="A145" s="9">
         <v>75</v>
       </c>
-      <c r="B145" s="11">
+      <c r="B145" s="10">
         <v>0</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D145" s="9">
         <v>75</v>
       </c>
-      <c r="E145" s="11">
+      <c r="E145" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="8">
         <v>2</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E148" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="10">
+      <c r="A150" s="9">
         <v>0</v>
       </c>
-      <c r="B150" s="11">
+      <c r="B150" s="10">
         <v>1</v>
       </c>
-      <c r="D150" s="10">
+      <c r="D150" s="9">
         <v>0</v>
       </c>
-      <c r="E150" s="11">
+      <c r="E150" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="10">
+      <c r="A151" s="9">
         <v>6</v>
       </c>
-      <c r="B151" s="11">
+      <c r="B151" s="10">
         <v>0.993865</v>
       </c>
-      <c r="D151" s="10">
+      <c r="D151" s="9">
         <v>6</v>
       </c>
-      <c r="E151" s="11">
+      <c r="E151" s="10">
         <v>0.993865</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="10">
+      <c r="A152" s="9">
         <v>7</v>
       </c>
-      <c r="B152" s="11">
+      <c r="B152" s="10">
         <v>0.98773</v>
       </c>
-      <c r="D152" s="10">
+      <c r="D152" s="9">
         <v>7</v>
       </c>
-      <c r="E152" s="11">
+      <c r="E152" s="10">
         <v>0.98773</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="10">
+      <c r="A153" s="9">
         <v>9</v>
       </c>
-      <c r="B153" s="11">
+      <c r="B153" s="10">
         <v>0.96921000000000002</v>
       </c>
-      <c r="D153" s="10">
+      <c r="D153" s="9">
         <v>9</v>
       </c>
-      <c r="E153" s="11">
+      <c r="E153" s="10">
         <v>0.96921000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="10">
+      <c r="A154" s="9">
         <v>13</v>
       </c>
-      <c r="B154" s="11">
+      <c r="B154" s="10">
         <v>0.95069000000000004</v>
       </c>
-      <c r="D154" s="10">
+      <c r="D154" s="9">
         <v>13</v>
       </c>
-      <c r="E154" s="11">
+      <c r="E154" s="10">
         <v>0.95069000000000004</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="10">
+      <c r="A155" s="9">
         <v>15</v>
       </c>
-      <c r="B155" s="11">
+      <c r="B155" s="10">
         <v>0.93834399999999996</v>
       </c>
-      <c r="D155" s="10">
+      <c r="D155" s="9">
         <v>15</v>
       </c>
-      <c r="E155" s="11">
+      <c r="E155" s="10">
         <v>0.93834399999999996</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="10">
+      <c r="A156" s="9">
         <v>17</v>
       </c>
-      <c r="B156" s="11">
+      <c r="B156" s="10">
         <v>0.93217000000000005</v>
       </c>
-      <c r="D156" s="10">
+      <c r="D156" s="9">
         <v>17</v>
       </c>
-      <c r="E156" s="11">
+      <c r="E156" s="10">
         <v>0.93217000000000005</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="10">
+      <c r="A157" s="9">
         <v>19</v>
       </c>
-      <c r="B157" s="11">
+      <c r="B157" s="10">
         <v>0.91364999999999996</v>
       </c>
-      <c r="D157" s="10">
+      <c r="D157" s="9">
         <v>19</v>
       </c>
-      <c r="E157" s="11">
+      <c r="E157" s="10">
         <v>0.91364999999999996</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="10">
+      <c r="A158" s="9">
         <v>22</v>
       </c>
-      <c r="B158" s="11">
+      <c r="B158" s="10">
         <v>0.888957</v>
       </c>
-      <c r="D158" s="10">
+      <c r="D158" s="9">
         <v>22</v>
       </c>
-      <c r="E158" s="11">
+      <c r="E158" s="10">
         <v>0.888957</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="10">
+      <c r="A159" s="9">
         <v>26</v>
       </c>
-      <c r="B159" s="11">
+      <c r="B159" s="10">
         <v>0.85809000000000002</v>
       </c>
-      <c r="D159" s="10">
+      <c r="D159" s="9">
         <v>26</v>
       </c>
-      <c r="E159" s="11">
+      <c r="E159" s="10">
         <v>0.85809000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="10">
+      <c r="A160" s="9">
         <v>29</v>
       </c>
-      <c r="B160" s="11">
+      <c r="B160" s="10">
         <v>0.82722399999999996</v>
       </c>
-      <c r="D160" s="10">
+      <c r="D160" s="9">
         <v>29</v>
       </c>
-      <c r="E160" s="11">
+      <c r="E160" s="10">
         <v>0.82722399999999996</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="10">
+      <c r="A161" s="9">
         <v>32</v>
       </c>
-      <c r="B161" s="11">
+      <c r="B161" s="10">
         <v>0.82105099999999998</v>
       </c>
-      <c r="D161" s="10">
+      <c r="D161" s="9">
         <v>32</v>
       </c>
-      <c r="E161" s="11">
+      <c r="E161" s="10">
         <v>0.82105099999999998</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="10">
+      <c r="A162" s="9">
         <v>33</v>
       </c>
-      <c r="B162" s="11">
+      <c r="B162" s="10">
         <v>0.80253099999999999</v>
       </c>
-      <c r="D162" s="10">
+      <c r="D162" s="9">
         <v>33</v>
       </c>
-      <c r="E162" s="11">
+      <c r="E162" s="10">
         <v>0.80253099999999999</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="10">
+      <c r="A163" s="9">
         <v>36</v>
       </c>
-      <c r="B163" s="11">
+      <c r="B163" s="10">
         <v>0.790184</v>
       </c>
-      <c r="D163" s="10">
+      <c r="D163" s="9">
         <v>36</v>
       </c>
-      <c r="E163" s="11">
+      <c r="E163" s="10">
         <v>0.790184</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="10">
+      <c r="A164" s="9">
         <v>38</v>
       </c>
-      <c r="B164" s="11">
+      <c r="B164" s="10">
         <v>0.777837</v>
       </c>
-      <c r="D164" s="10">
+      <c r="D164" s="9">
         <v>38</v>
       </c>
-      <c r="E164" s="11">
+      <c r="E164" s="10">
         <v>0.777837</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="10">
+      <c r="A165" s="9">
         <v>41</v>
       </c>
-      <c r="B165" s="11">
+      <c r="B165" s="10">
         <v>0.73462400000000005</v>
       </c>
-      <c r="D165" s="10">
+      <c r="D165" s="9">
         <v>41</v>
       </c>
-      <c r="E165" s="11">
+      <c r="E165" s="10">
         <v>0.73462400000000005</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="10">
+      <c r="A166" s="9">
         <v>43</v>
       </c>
-      <c r="B166" s="11">
+      <c r="B166" s="10">
         <v>0.72845099999999996</v>
       </c>
-      <c r="D166" s="10">
+      <c r="D166" s="9">
         <v>43</v>
       </c>
-      <c r="E166" s="11">
+      <c r="E166" s="10">
         <v>0.72845099999999996</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="10">
+      <c r="A167" s="9">
         <v>45</v>
       </c>
-      <c r="B167" s="11">
+      <c r="B167" s="10">
         <v>0.67289100000000002</v>
       </c>
-      <c r="D167" s="10">
+      <c r="D167" s="9">
         <v>45</v>
       </c>
-      <c r="E167" s="11">
+      <c r="E167" s="10">
         <v>0.67289100000000002</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="10">
+      <c r="A168" s="9">
         <v>47</v>
       </c>
-      <c r="B168" s="11">
+      <c r="B168" s="10">
         <v>0.66666099999999995</v>
       </c>
-      <c r="D168" s="10">
+      <c r="D168" s="9">
         <v>47</v>
       </c>
-      <c r="E168" s="11">
+      <c r="E168" s="10">
         <v>0.66666099999999995</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="10">
+      <c r="A169" s="9">
         <v>48</v>
       </c>
-      <c r="B169" s="11">
+      <c r="B169" s="10">
         <v>0.61681699999999995</v>
       </c>
-      <c r="D169" s="10">
+      <c r="D169" s="9">
         <v>48</v>
       </c>
-      <c r="E169" s="11">
+      <c r="E169" s="10">
         <v>0.61681699999999995</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="10">
+      <c r="A170" s="9">
         <v>51</v>
       </c>
-      <c r="B170" s="11">
+      <c r="B170" s="10">
         <v>0.59812500000000002</v>
       </c>
-      <c r="D170" s="10">
+      <c r="D170" s="9">
         <v>51</v>
       </c>
-      <c r="E170" s="11">
+      <c r="E170" s="10">
         <v>0.59812500000000002</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="10">
+      <c r="A171" s="9">
         <v>53</v>
       </c>
-      <c r="B171" s="11">
+      <c r="B171" s="10">
         <v>0.554512</v>
       </c>
-      <c r="D171" s="10">
+      <c r="D171" s="9">
         <v>53</v>
       </c>
-      <c r="E171" s="11">
+      <c r="E171" s="10">
         <v>0.554512</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="10">
+      <c r="A172" s="9">
         <v>54</v>
       </c>
-      <c r="B172" s="11">
+      <c r="B172" s="10">
         <v>0.54205099999999995</v>
       </c>
-      <c r="D172" s="10">
+      <c r="D172" s="9">
         <v>54</v>
       </c>
-      <c r="E172" s="11">
+      <c r="E172" s="10">
         <v>0.54205099999999995</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="10">
+      <c r="A173" s="9">
         <v>56</v>
       </c>
-      <c r="B173" s="11">
+      <c r="B173" s="10">
         <v>0.42990299999999998</v>
       </c>
-      <c r="D173" s="10">
+      <c r="D173" s="9">
         <v>56</v>
       </c>
-      <c r="E173" s="11">
+      <c r="E173" s="10">
         <v>0.42990299999999998</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="10">
+      <c r="A174" s="9">
         <v>58</v>
       </c>
-      <c r="B174" s="11">
+      <c r="B174" s="10">
         <v>0.40498099999999998</v>
       </c>
-      <c r="D174" s="10">
+      <c r="D174" s="9">
         <v>58</v>
       </c>
-      <c r="E174" s="11">
+      <c r="E174" s="10">
         <v>0.40498099999999998</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="10">
+      <c r="A175" s="9">
         <v>60</v>
       </c>
-      <c r="B175" s="11">
+      <c r="B175" s="10">
         <v>0.31152400000000002</v>
       </c>
-      <c r="D175" s="10">
+      <c r="D175" s="9">
         <v>60</v>
       </c>
-      <c r="E175" s="11">
+      <c r="E175" s="10">
         <v>0.31152400000000002</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="10">
+      <c r="A176" s="9">
         <v>61</v>
       </c>
-      <c r="B176" s="11">
+      <c r="B176" s="10">
         <v>0.254305</v>
       </c>
-      <c r="D176" s="10">
+      <c r="D176" s="9">
         <v>61</v>
       </c>
-      <c r="E176" s="11">
+      <c r="E176" s="10">
         <v>0.254305</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="10">
+      <c r="A177" s="9">
         <v>62</v>
       </c>
-      <c r="B177" s="11">
+      <c r="B177" s="10">
         <v>0.240921</v>
       </c>
-      <c r="D177" s="10">
+      <c r="D177" s="9">
         <v>62</v>
       </c>
-      <c r="E177" s="11">
+      <c r="E177" s="10">
         <v>0.240921</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="10">
+      <c r="A178" s="9">
         <v>63</v>
       </c>
-      <c r="B178" s="11">
+      <c r="B178" s="10">
         <v>0.18068999999999999</v>
       </c>
-      <c r="D178" s="10">
+      <c r="D178" s="9">
         <v>63</v>
       </c>
-      <c r="E178" s="11">
+      <c r="E178" s="10">
         <v>0.18068999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="10">
+      <c r="A179" s="9">
         <v>66</v>
       </c>
-      <c r="B179" s="11">
+      <c r="B179" s="10">
         <v>0.16061400000000001</v>
       </c>
-      <c r="D179" s="10">
+      <c r="D179" s="9">
         <v>66</v>
       </c>
-      <c r="E179" s="11">
+      <c r="E179" s="10">
         <v>0.16061400000000001</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="10">
+      <c r="A180" s="9">
         <v>68</v>
       </c>
-      <c r="B180" s="11">
+      <c r="B180" s="10">
         <v>0.100384</v>
       </c>
-      <c r="D180" s="10">
+      <c r="D180" s="9">
         <v>68</v>
       </c>
-      <c r="E180" s="11">
+      <c r="E180" s="10">
         <v>0.100384</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="10">
+      <c r="A181" s="9">
         <v>69</v>
       </c>
-      <c r="B181" s="11">
+      <c r="B181" s="10">
         <v>1.4341E-2</v>
       </c>
-      <c r="D181" s="10">
+      <c r="D181" s="9">
         <v>69</v>
       </c>
-      <c r="E181" s="11">
+      <c r="E181" s="10">
         <v>1.4341E-2</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="10">
+      <c r="A182" s="9">
         <v>75</v>
       </c>
-      <c r="B182" s="11">
+      <c r="B182" s="10">
         <v>0</v>
       </c>
-      <c r="D182" s="10">
+      <c r="D182" s="9">
         <v>75</v>
       </c>
-      <c r="E182" s="11">
+      <c r="E182" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B185" s="9">
+      <c r="B185" s="8">
         <v>0.2225</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E185" s="9">
+      <c r="E185" s="8">
         <v>0.2225</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D186" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E186" s="9" t="s">
+      <c r="E186" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="10">
+      <c r="A187" s="9">
         <v>0</v>
       </c>
-      <c r="B187" s="11">
+      <c r="B187" s="10">
         <v>1</v>
       </c>
-      <c r="D187" s="10">
+      <c r="D187" s="9">
         <v>0</v>
       </c>
-      <c r="E187" s="11">
+      <c r="E187" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="10">
+      <c r="A188" s="9">
         <v>6</v>
       </c>
-      <c r="B188" s="11">
+      <c r="B188" s="10">
         <v>1</v>
       </c>
-      <c r="D188" s="10">
+      <c r="D188" s="9">
         <v>6</v>
       </c>
-      <c r="E188" s="11">
+      <c r="E188" s="10">
         <v>0.993865</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="10">
+      <c r="A189" s="9">
         <v>7</v>
       </c>
-      <c r="B189" s="11">
+      <c r="B189" s="10">
         <v>1</v>
       </c>
-      <c r="D189" s="10">
+      <c r="D189" s="9">
         <v>7</v>
       </c>
-      <c r="E189" s="11">
+      <c r="E189" s="10">
         <v>0.98773</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="10">
+      <c r="A190" s="9">
         <v>9</v>
       </c>
-      <c r="B190" s="11">
+      <c r="B190" s="10">
         <v>1</v>
       </c>
-      <c r="D190" s="10">
+      <c r="D190" s="9">
         <v>9</v>
       </c>
-      <c r="E190" s="11">
+      <c r="E190" s="10">
         <v>0.96921000000000002</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="10">
+      <c r="A191" s="9">
         <v>13</v>
       </c>
-      <c r="B191" s="11">
+      <c r="B191" s="10">
         <v>1</v>
       </c>
-      <c r="D191" s="10">
+      <c r="D191" s="9">
         <v>13</v>
       </c>
-      <c r="E191" s="11">
+      <c r="E191" s="10">
         <v>0.95069000000000004</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="10">
+      <c r="A192" s="9">
         <v>15</v>
       </c>
-      <c r="B192" s="11">
+      <c r="B192" s="10">
         <v>1</v>
       </c>
-      <c r="D192" s="10">
+      <c r="D192" s="9">
         <v>15</v>
       </c>
-      <c r="E192" s="11">
+      <c r="E192" s="10">
         <v>0.93834399999999996</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="10">
+      <c r="A193" s="9">
         <v>17</v>
       </c>
-      <c r="B193" s="11">
+      <c r="B193" s="10">
         <v>1</v>
       </c>
-      <c r="D193" s="10">
+      <c r="D193" s="9">
         <v>17</v>
       </c>
-      <c r="E193" s="11">
+      <c r="E193" s="10">
         <v>0.93217000000000005</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="10">
+      <c r="A194" s="9">
         <v>19</v>
       </c>
-      <c r="B194" s="11">
+      <c r="B194" s="10">
         <v>1</v>
       </c>
-      <c r="D194" s="10">
+      <c r="D194" s="9">
         <v>19</v>
       </c>
-      <c r="E194" s="11">
+      <c r="E194" s="10">
         <v>0.91364999999999996</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="10">
+      <c r="A195" s="9">
         <v>22</v>
       </c>
-      <c r="B195" s="11">
+      <c r="B195" s="10">
         <v>1</v>
       </c>
-      <c r="D195" s="10">
+      <c r="D195" s="9">
         <v>22</v>
       </c>
-      <c r="E195" s="11">
+      <c r="E195" s="10">
         <v>0.888957</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="10">
+      <c r="A196" s="9">
         <v>26</v>
       </c>
-      <c r="B196" s="11">
+      <c r="B196" s="10">
         <v>0.96875</v>
       </c>
-      <c r="D196" s="10">
+      <c r="D196" s="9">
         <v>26</v>
       </c>
-      <c r="E196" s="11">
+      <c r="E196" s="10">
         <v>0.85809000000000002</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="10">
+      <c r="A197" s="9">
         <v>29</v>
       </c>
-      <c r="B197" s="11">
+      <c r="B197" s="10">
         <v>0.93645800000000001</v>
       </c>
-      <c r="D197" s="10">
+      <c r="D197" s="9">
         <v>29</v>
       </c>
-      <c r="E197" s="11">
+      <c r="E197" s="10">
         <v>0.82722399999999996</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="10">
+      <c r="A198" s="9">
         <v>32</v>
       </c>
-      <c r="B198" s="11">
+      <c r="B198" s="10">
         <v>0.93645800000000001</v>
       </c>
-      <c r="D198" s="10">
+      <c r="D198" s="9">
         <v>32</v>
       </c>
-      <c r="E198" s="11">
+      <c r="E198" s="10">
         <v>0.82105099999999998</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="10">
+      <c r="A199" s="9">
         <v>33</v>
       </c>
-      <c r="B199" s="11">
+      <c r="B199" s="10">
         <v>0.93645800000000001</v>
       </c>
-      <c r="D199" s="10">
+      <c r="D199" s="9">
         <v>33</v>
       </c>
-      <c r="E199" s="11">
+      <c r="E199" s="10">
         <v>0.80253099999999999</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="10">
+      <c r="A200" s="9">
         <v>36</v>
       </c>
-      <c r="B200" s="11">
+      <c r="B200" s="10">
         <v>0.93645800000000001</v>
       </c>
-      <c r="D200" s="10">
+      <c r="D200" s="9">
         <v>36</v>
       </c>
-      <c r="E200" s="11">
+      <c r="E200" s="10">
         <v>0.790184</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="10">
+      <c r="A201" s="9">
         <v>38</v>
       </c>
-      <c r="B201" s="11">
+      <c r="B201" s="10">
         <v>0.93645800000000001</v>
       </c>
-      <c r="D201" s="10">
+      <c r="D201" s="9">
         <v>38</v>
       </c>
-      <c r="E201" s="11">
+      <c r="E201" s="10">
         <v>0.777837</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="10">
+      <c r="A202" s="9">
         <v>41</v>
       </c>
-      <c r="B202" s="11">
+      <c r="B202" s="10">
         <v>0.90301299999999995</v>
       </c>
-      <c r="D202" s="10">
+      <c r="D202" s="9">
         <v>41</v>
       </c>
-      <c r="E202" s="11">
+      <c r="E202" s="10">
         <v>0.73462400000000005</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="10">
+      <c r="A203" s="9">
         <v>43</v>
       </c>
-      <c r="B203" s="11">
+      <c r="B203" s="10">
         <v>0.90301299999999995</v>
       </c>
-      <c r="D203" s="10">
+      <c r="D203" s="9">
         <v>43</v>
       </c>
-      <c r="E203" s="11">
+      <c r="E203" s="10">
         <v>0.72845099999999996</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="10">
+      <c r="A204" s="9">
         <v>45</v>
       </c>
-      <c r="B204" s="11">
+      <c r="B204" s="10">
         <v>0.83355100000000004</v>
       </c>
-      <c r="D204" s="10">
+      <c r="D204" s="9">
         <v>45</v>
       </c>
-      <c r="E204" s="11">
+      <c r="E204" s="10">
         <v>0.67289100000000002</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="10">
+      <c r="A205" s="9">
         <v>47</v>
       </c>
-      <c r="B205" s="11">
+      <c r="B205" s="10">
         <v>0.83355100000000004</v>
       </c>
-      <c r="D205" s="10">
+      <c r="D205" s="9">
         <v>47</v>
       </c>
-      <c r="E205" s="11">
+      <c r="E205" s="10">
         <v>0.66666099999999995</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="10">
+      <c r="A206" s="9">
         <v>48</v>
       </c>
-      <c r="B206" s="11">
+      <c r="B206" s="10">
         <v>0.79730900000000005</v>
       </c>
-      <c r="D206" s="10">
+      <c r="D206" s="9">
         <v>48</v>
       </c>
-      <c r="E206" s="11">
+      <c r="E206" s="10">
         <v>0.61681699999999995</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="10">
+      <c r="A207" s="9">
         <v>51</v>
       </c>
-      <c r="B207" s="11">
+      <c r="B207" s="10">
         <v>0.79730900000000005</v>
       </c>
-      <c r="D207" s="10">
+      <c r="D207" s="9">
         <v>51</v>
       </c>
-      <c r="E207" s="11">
+      <c r="E207" s="10">
         <v>0.59812500000000002</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="10">
+      <c r="A208" s="9">
         <v>53</v>
       </c>
-      <c r="B208" s="11">
+      <c r="B208" s="10">
         <v>0.75934199999999996</v>
       </c>
-      <c r="D208" s="10">
+      <c r="D208" s="9">
         <v>53</v>
       </c>
-      <c r="E208" s="11">
+      <c r="E208" s="10">
         <v>0.554512</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="10">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A209" s="9">
         <v>54</v>
       </c>
-      <c r="B209" s="11">
+      <c r="B209" s="10">
         <v>0.75934199999999996</v>
       </c>
-      <c r="D209" s="10">
+      <c r="D209" s="9">
         <v>54</v>
       </c>
-      <c r="E209" s="11">
+      <c r="E209" s="10">
         <v>0.54205099999999995</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="10">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A210" s="9">
         <v>56</v>
       </c>
-      <c r="B210" s="11">
+      <c r="B210" s="10">
         <v>0.59948100000000004</v>
       </c>
-      <c r="D210" s="10">
+      <c r="D210" s="9">
         <v>56</v>
       </c>
-      <c r="E210" s="11">
+      <c r="E210" s="10">
         <v>0.42990299999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="10">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A211" s="9">
         <v>58</v>
       </c>
-      <c r="B211" s="11">
+      <c r="B211" s="10">
         <v>0.59948100000000004</v>
       </c>
-      <c r="D211" s="10">
+      <c r="D211" s="9">
         <v>58</v>
       </c>
-      <c r="E211" s="11">
+      <c r="E211" s="10">
         <v>0.40498099999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="10">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A212" s="9">
         <v>60</v>
       </c>
-      <c r="B212" s="11">
+      <c r="B212" s="10">
         <v>0.47102100000000002</v>
       </c>
-      <c r="D212" s="10">
+      <c r="D212" s="9">
         <v>60</v>
       </c>
-      <c r="E212" s="11">
+      <c r="E212" s="10">
         <v>0.31152400000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="10">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A213" s="9">
         <v>61</v>
       </c>
-      <c r="B213" s="11">
+      <c r="B213" s="10">
         <v>0.37681700000000001</v>
       </c>
-      <c r="D213" s="10">
+      <c r="D213" s="9">
         <v>61</v>
       </c>
-      <c r="E213" s="11">
+      <c r="E213" s="10">
         <v>0.254305</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="10">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A214" s="9">
         <v>62</v>
       </c>
-      <c r="B214" s="11">
+      <c r="B214" s="10">
         <v>0.37681700000000001</v>
       </c>
-      <c r="D214" s="10">
+      <c r="D214" s="9">
         <v>62</v>
       </c>
-      <c r="E214" s="11">
+      <c r="E214" s="10">
         <v>0.240921</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="10">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A215" s="9">
         <v>63</v>
       </c>
-      <c r="B215" s="11">
+      <c r="B215" s="10">
         <v>0.28261199999999997</v>
       </c>
-      <c r="D215" s="10">
+      <c r="D215" s="9">
         <v>63</v>
       </c>
-      <c r="E215" s="11">
+      <c r="E215" s="10">
         <v>0.18068999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="10">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A216" s="9">
         <v>66</v>
       </c>
-      <c r="B216" s="11">
+      <c r="B216" s="10">
         <v>0.28261199999999997</v>
       </c>
-      <c r="D216" s="10">
+      <c r="D216" s="9">
         <v>66</v>
       </c>
-      <c r="E216" s="11">
+      <c r="E216" s="10">
         <v>0.16061400000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="10">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A217" s="9">
         <v>68</v>
       </c>
-      <c r="B217" s="11">
+      <c r="B217" s="10">
         <v>0.169567</v>
       </c>
-      <c r="D217" s="10">
+      <c r="D217" s="9">
         <v>68</v>
       </c>
-      <c r="E217" s="11">
+      <c r="E217" s="10">
         <v>0.100384</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="10">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A218" s="9">
         <v>69</v>
       </c>
-      <c r="B218" s="11">
+      <c r="B218" s="10">
         <v>5.6522000000000003E-2</v>
       </c>
-      <c r="D218" s="10">
+      <c r="D218" s="9">
         <v>69</v>
       </c>
-      <c r="E218" s="11">
+      <c r="E218" s="10">
         <v>1.4341E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="10">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A219" s="9">
         <v>75</v>
       </c>
-      <c r="B219" s="11">
+      <c r="B219" s="10">
         <v>1</v>
       </c>
-      <c r="D219" s="10">
+      <c r="D219" s="9">
         <v>75</v>
       </c>
-      <c r="E219" s="11">
+      <c r="E219" s="10">
         <v>1</v>
       </c>
     </row>
+    <row r="222" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="9">
+        <v>0</v>
+      </c>
+      <c r="B222" s="11">
+        <v>1</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="12"/>
+      <c r="K222" s="12"/>
+      <c r="L222" s="12"/>
+      <c r="M222" s="12"/>
+      <c r="N222" s="12"/>
+      <c r="O222" s="12"/>
+      <c r="P222" s="12"/>
+      <c r="Q222" s="12"/>
+      <c r="R222" s="12"/>
+      <c r="S222" s="12"/>
+      <c r="T222" s="12"/>
+      <c r="U222" s="12"/>
+      <c r="V222" s="12"/>
+      <c r="W222" s="12"/>
+      <c r="X222" s="12"/>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A223" s="9">
+        <v>6</v>
+      </c>
+      <c r="B223" s="11">
+        <v>0.993865</v>
+      </c>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="12"/>
+      <c r="J223" s="12"/>
+      <c r="K223" s="12"/>
+      <c r="L223" s="12"/>
+      <c r="M223" s="12"/>
+      <c r="N223" s="12"/>
+      <c r="O223" s="12"/>
+      <c r="P223" s="12"/>
+      <c r="Q223" s="12"/>
+      <c r="R223" s="12"/>
+      <c r="S223" s="12"/>
+      <c r="T223" s="12"/>
+      <c r="U223" s="12"/>
+      <c r="V223" s="12"/>
+      <c r="W223" s="12"/>
+      <c r="X223" s="12"/>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A224" s="9">
+        <v>7</v>
+      </c>
+      <c r="B224" s="11">
+        <v>0.981595</v>
+      </c>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+      <c r="J224" s="12"/>
+      <c r="K224" s="12"/>
+      <c r="L224" s="12"/>
+      <c r="M224" s="12"/>
+      <c r="N224" s="12"/>
+      <c r="O224" s="12"/>
+      <c r="P224" s="12"/>
+      <c r="Q224" s="12"/>
+      <c r="R224" s="12"/>
+      <c r="S224" s="12"/>
+      <c r="T224" s="12"/>
+      <c r="U224" s="12"/>
+      <c r="V224" s="12"/>
+      <c r="W224" s="12"/>
+      <c r="X224" s="12"/>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A225" s="9">
+        <v>9</v>
+      </c>
+      <c r="B225" s="11">
+        <v>0.96318999999999999</v>
+      </c>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="12"/>
+      <c r="J225" s="12"/>
+      <c r="K225" s="12"/>
+      <c r="L225" s="12"/>
+      <c r="M225" s="12"/>
+      <c r="N225" s="12"/>
+      <c r="O225" s="12"/>
+      <c r="P225" s="12"/>
+      <c r="Q225" s="12"/>
+      <c r="R225" s="12"/>
+      <c r="S225" s="12"/>
+      <c r="T225" s="12"/>
+      <c r="U225" s="12"/>
+      <c r="V225" s="12"/>
+      <c r="W225" s="12"/>
+      <c r="X225" s="12"/>
+    </row>
+    <row r="226" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="9">
+        <v>13</v>
+      </c>
+      <c r="B226" s="11">
+        <v>0.94478499999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="9">
+        <v>15</v>
+      </c>
+      <c r="B227" s="11">
+        <v>0.93251499999999998</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+      <c r="J227" s="12"/>
+      <c r="K227" s="12"/>
+      <c r="L227" s="12"/>
+      <c r="M227" s="12"/>
+      <c r="N227" s="12"/>
+      <c r="O227" s="12"/>
+      <c r="P227" s="12"/>
+      <c r="Q227" s="12"/>
+      <c r="R227" s="12"/>
+      <c r="S227" s="12"/>
+      <c r="T227" s="12"/>
+      <c r="U227" s="12"/>
+      <c r="V227" s="12"/>
+      <c r="W227" s="12"/>
+      <c r="X227" s="12"/>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A228" s="9">
+        <v>17</v>
+      </c>
+      <c r="B228" s="11">
+        <v>0.92637999999999998</v>
+      </c>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+      <c r="J228" s="12"/>
+      <c r="K228" s="12"/>
+      <c r="L228" s="12"/>
+      <c r="M228" s="12"/>
+      <c r="N228" s="12"/>
+      <c r="O228" s="12"/>
+      <c r="P228" s="12"/>
+      <c r="Q228" s="12"/>
+      <c r="R228" s="12"/>
+      <c r="S228" s="12"/>
+      <c r="T228" s="12"/>
+      <c r="U228" s="12"/>
+      <c r="V228" s="12"/>
+      <c r="W228" s="12"/>
+      <c r="X228" s="12"/>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A229" s="9">
+        <v>19</v>
+      </c>
+      <c r="B229" s="11">
+        <v>0.90797499999999998</v>
+      </c>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="12"/>
+      <c r="J229" s="12"/>
+      <c r="K229" s="12"/>
+      <c r="L229" s="12"/>
+      <c r="M229" s="12"/>
+      <c r="N229" s="12"/>
+      <c r="O229" s="12"/>
+      <c r="P229" s="12"/>
+      <c r="Q229" s="12"/>
+      <c r="R229" s="12"/>
+      <c r="S229" s="12"/>
+      <c r="T229" s="12"/>
+      <c r="U229" s="12"/>
+      <c r="V229" s="12"/>
+      <c r="W229" s="12"/>
+      <c r="X229" s="12"/>
+    </row>
+    <row r="230" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="9">
+        <v>22</v>
+      </c>
+      <c r="B230" s="11">
+        <v>0.883436</v>
+      </c>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+      <c r="J230" s="12"/>
+      <c r="K230" s="12"/>
+      <c r="L230" s="12"/>
+      <c r="M230" s="12"/>
+      <c r="N230" s="12"/>
+      <c r="O230" s="12"/>
+      <c r="P230" s="12"/>
+      <c r="Q230" s="12"/>
+      <c r="R230" s="12"/>
+      <c r="S230" s="12"/>
+      <c r="T230" s="12"/>
+      <c r="U230" s="12"/>
+      <c r="V230" s="12"/>
+      <c r="W230" s="12"/>
+      <c r="X230" s="12"/>
+    </row>
+    <row r="231" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="9">
+        <v>26</v>
+      </c>
+      <c r="B231" s="11">
+        <v>0.85276099999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="9">
+        <v>29</v>
+      </c>
+      <c r="B232" s="11">
+        <v>0.82208599999999998</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+      <c r="J232" s="12"/>
+      <c r="K232" s="12"/>
+      <c r="L232" s="12"/>
+      <c r="M232" s="12"/>
+      <c r="N232" s="12"/>
+      <c r="O232" s="12"/>
+      <c r="P232" s="12"/>
+      <c r="Q232" s="12"/>
+      <c r="R232" s="12"/>
+      <c r="S232" s="12"/>
+      <c r="T232" s="12"/>
+      <c r="U232" s="12"/>
+      <c r="V232" s="12"/>
+      <c r="W232" s="12"/>
+      <c r="X232" s="12"/>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A233" s="9">
+        <v>32</v>
+      </c>
+      <c r="B233" s="11">
+        <v>0.81595099999999998</v>
+      </c>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="12"/>
+      <c r="I233" s="12"/>
+      <c r="J233" s="12"/>
+      <c r="K233" s="12"/>
+      <c r="L233" s="12"/>
+      <c r="M233" s="12"/>
+      <c r="N233" s="12"/>
+      <c r="O233" s="12"/>
+      <c r="P233" s="12"/>
+      <c r="Q233" s="12"/>
+      <c r="R233" s="12"/>
+      <c r="S233" s="12"/>
+      <c r="T233" s="12"/>
+      <c r="U233" s="12"/>
+      <c r="V233" s="12"/>
+      <c r="W233" s="12"/>
+      <c r="X233" s="12"/>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A234" s="9">
+        <v>33</v>
+      </c>
+      <c r="B234" s="11">
+        <v>0.79754599999999998</v>
+      </c>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="12"/>
+      <c r="J234" s="12"/>
+      <c r="K234" s="12"/>
+      <c r="L234" s="12"/>
+      <c r="M234" s="12"/>
+      <c r="N234" s="12"/>
+      <c r="O234" s="12"/>
+      <c r="P234" s="12"/>
+      <c r="Q234" s="12"/>
+      <c r="R234" s="12"/>
+      <c r="S234" s="12"/>
+      <c r="T234" s="12"/>
+      <c r="U234" s="12"/>
+      <c r="V234" s="12"/>
+      <c r="W234" s="12"/>
+      <c r="X234" s="12"/>
+    </row>
+    <row r="235" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="9">
+        <v>36</v>
+      </c>
+      <c r="B235" s="11">
+        <v>0.78527599999999997</v>
+      </c>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="12"/>
+      <c r="J235" s="12"/>
+      <c r="K235" s="12"/>
+      <c r="L235" s="12"/>
+      <c r="M235" s="12"/>
+      <c r="N235" s="12"/>
+      <c r="O235" s="12"/>
+      <c r="P235" s="12"/>
+      <c r="Q235" s="12"/>
+      <c r="R235" s="12"/>
+      <c r="S235" s="12"/>
+      <c r="T235" s="12"/>
+      <c r="U235" s="12"/>
+      <c r="V235" s="12"/>
+      <c r="W235" s="12"/>
+      <c r="X235" s="12"/>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A236" s="9">
+        <v>38</v>
+      </c>
+      <c r="B236" s="11">
+        <v>0.77300599999999997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A237" s="9">
+        <v>41</v>
+      </c>
+      <c r="B237" s="11">
+        <v>0.73006099999999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A238" s="9">
+        <v>43</v>
+      </c>
+      <c r="B238" s="11">
+        <v>0.72392599999999996</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A239" s="9">
+        <v>45</v>
+      </c>
+      <c r="B239" s="11">
+        <v>0.66257699999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A240" s="9">
+        <v>47</v>
+      </c>
+      <c r="B240" s="11">
+        <v>0.65644199999999997</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="9">
+        <v>48</v>
+      </c>
+      <c r="B241" s="11">
+        <v>0.60736199999999996</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="9">
+        <v>51</v>
+      </c>
+      <c r="B242" s="11">
+        <v>0.58895699999999995</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="9">
+        <v>53</v>
+      </c>
+      <c r="B243" s="11">
+        <v>0.54601200000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="9">
+        <v>54</v>
+      </c>
+      <c r="B244" s="11">
+        <v>0.53374200000000005</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="9">
+        <v>56</v>
+      </c>
+      <c r="B245" s="11">
+        <v>0.42331299999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="9">
+        <v>58</v>
+      </c>
+      <c r="B246" s="11">
+        <v>0.39877299999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="9">
+        <v>60</v>
+      </c>
+      <c r="B247" s="11">
+        <v>0.30061300000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="9">
+        <v>61</v>
+      </c>
+      <c r="B248" s="11">
+        <v>0.233129</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="9">
+        <v>62</v>
+      </c>
+      <c r="B249" s="11">
+        <v>0.220859</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="9">
+        <v>63</v>
+      </c>
+      <c r="B250" s="11">
+        <v>0.16564400000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="9">
+        <v>66</v>
+      </c>
+      <c r="B251" s="11">
+        <v>0.14723900000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="9">
+        <v>68</v>
+      </c>
+      <c r="B252" s="11">
+        <v>8.5889999999999994E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="9">
+        <v>69</v>
+      </c>
+      <c r="B253" s="11">
+        <v>6.1349999999999998E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="9">
+        <v>75</v>
+      </c>
+      <c r="B254" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="9"/>
+      <c r="B255" s="11"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="9"/>
+      <c r="B256" s="11"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="9">
+        <v>0</v>
+      </c>
+      <c r="B257" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="9">
+        <v>6</v>
+      </c>
+      <c r="B258" s="11">
+        <v>0.993865</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="9">
+        <v>7</v>
+      </c>
+      <c r="B259" s="11">
+        <v>0.981595</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="9">
+        <v>9</v>
+      </c>
+      <c r="B260" s="11">
+        <v>0.96318999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="9">
+        <v>13</v>
+      </c>
+      <c r="B261" s="11">
+        <v>0.94478499999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="9">
+        <v>15</v>
+      </c>
+      <c r="B262" s="11">
+        <v>0.93251499999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="9">
+        <v>17</v>
+      </c>
+      <c r="B263" s="11">
+        <v>0.92637999999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="9">
+        <v>19</v>
+      </c>
+      <c r="B264" s="11">
+        <v>0.90797499999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="9">
+        <v>22</v>
+      </c>
+      <c r="B265" s="11">
+        <v>0.883436</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="9">
+        <v>26</v>
+      </c>
+      <c r="B266" s="11">
+        <v>0.85276099999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="9">
+        <v>29</v>
+      </c>
+      <c r="B267" s="11">
+        <v>0.82208599999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="9">
+        <v>32</v>
+      </c>
+      <c r="B268" s="11">
+        <v>0.81595099999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="9">
+        <v>33</v>
+      </c>
+      <c r="B269" s="11">
+        <v>0.79754599999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="9">
+        <v>36</v>
+      </c>
+      <c r="B270" s="11">
+        <v>0.78527599999999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="9">
+        <v>38</v>
+      </c>
+      <c r="B271" s="11">
+        <v>0.77300599999999997</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="9">
+        <v>41</v>
+      </c>
+      <c r="B272" s="11">
+        <v>0.73006099999999996</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="9">
+        <v>43</v>
+      </c>
+      <c r="B273" s="11">
+        <v>0.72392599999999996</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="9">
+        <v>45</v>
+      </c>
+      <c r="B274" s="11">
+        <v>0.66257699999999997</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="9">
+        <v>47</v>
+      </c>
+      <c r="B275" s="11">
+        <v>0.65644199999999997</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="9">
+        <v>48</v>
+      </c>
+      <c r="B276" s="11">
+        <v>0.60736199999999996</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="9">
+        <v>51</v>
+      </c>
+      <c r="B277" s="11">
+        <v>0.58895699999999995</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="9">
+        <v>53</v>
+      </c>
+      <c r="B278" s="11">
+        <v>0.54601200000000005</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="9">
+        <v>54</v>
+      </c>
+      <c r="B279" s="11">
+        <v>0.53374200000000005</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="9">
+        <v>56</v>
+      </c>
+      <c r="B280" s="11">
+        <v>0.42331299999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="9">
+        <v>58</v>
+      </c>
+      <c r="B281" s="11">
+        <v>0.39877299999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="9">
+        <v>60</v>
+      </c>
+      <c r="B282" s="11">
+        <v>0.30061300000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="9">
+        <v>61</v>
+      </c>
+      <c r="B283" s="11">
+        <v>0.233129</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="9">
+        <v>62</v>
+      </c>
+      <c r="B284" s="11">
+        <v>0.220859</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="9">
+        <v>63</v>
+      </c>
+      <c r="B285" s="11">
+        <v>0.16564400000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="9">
+        <v>66</v>
+      </c>
+      <c r="B286" s="11">
+        <v>0.14723900000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="9">
+        <v>68</v>
+      </c>
+      <c r="B287" s="11">
+        <v>8.5889999999999994E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="9">
+        <v>69</v>
+      </c>
+      <c r="B288" s="11">
+        <v>6.1349999999999998E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="9">
+        <v>75</v>
+      </c>
+      <c r="B289" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="9"/>
+      <c r="B290" s="11"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="9"/>
+      <c r="B291" s="11"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="9">
+        <v>0</v>
+      </c>
+      <c r="B292" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="9">
+        <v>6</v>
+      </c>
+      <c r="B293" s="11">
+        <v>0.993865</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="9">
+        <v>7</v>
+      </c>
+      <c r="B294" s="11">
+        <v>0.981595</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="9">
+        <v>9</v>
+      </c>
+      <c r="B295" s="11">
+        <v>0.96318999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="9">
+        <v>13</v>
+      </c>
+      <c r="B296" s="11">
+        <v>0.94478499999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="9">
+        <v>15</v>
+      </c>
+      <c r="B297" s="11">
+        <v>0.93251499999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="9">
+        <v>17</v>
+      </c>
+      <c r="B298" s="11">
+        <v>0.92637999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="9">
+        <v>19</v>
+      </c>
+      <c r="B299" s="11">
+        <v>0.90797499999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="9">
+        <v>22</v>
+      </c>
+      <c r="B300" s="11">
+        <v>0.883436</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="9">
+        <v>26</v>
+      </c>
+      <c r="B301" s="11">
+        <v>0.85276099999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="9">
+        <v>29</v>
+      </c>
+      <c r="B302" s="11">
+        <v>0.82208599999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="9">
+        <v>32</v>
+      </c>
+      <c r="B303" s="11">
+        <v>0.81595099999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="9">
+        <v>33</v>
+      </c>
+      <c r="B304" s="11">
+        <v>0.79754599999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="9">
+        <v>36</v>
+      </c>
+      <c r="B305" s="11">
+        <v>0.78527599999999997</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="9">
+        <v>38</v>
+      </c>
+      <c r="B306" s="11">
+        <v>0.77300599999999997</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="9">
+        <v>41</v>
+      </c>
+      <c r="B307" s="11">
+        <v>0.73006099999999996</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="9">
+        <v>43</v>
+      </c>
+      <c r="B308" s="11">
+        <v>0.72392599999999996</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="9">
+        <v>45</v>
+      </c>
+      <c r="B309" s="11">
+        <v>0.66257699999999997</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="9">
+        <v>47</v>
+      </c>
+      <c r="B310" s="11">
+        <v>0.65644199999999997</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="9">
+        <v>48</v>
+      </c>
+      <c r="B311" s="11">
+        <v>0.60736199999999996</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="9">
+        <v>51</v>
+      </c>
+      <c r="B312" s="11">
+        <v>0.58895699999999995</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="9">
+        <v>53</v>
+      </c>
+      <c r="B313" s="11">
+        <v>0.54601200000000005</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="9">
+        <v>54</v>
+      </c>
+      <c r="B314" s="11">
+        <v>0.53374200000000005</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="9">
+        <v>56</v>
+      </c>
+      <c r="B315" s="11">
+        <v>0.42331299999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="9">
+        <v>58</v>
+      </c>
+      <c r="B316" s="11">
+        <v>0.39877299999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="9">
+        <v>60</v>
+      </c>
+      <c r="B317" s="11">
+        <v>0.30061300000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="9">
+        <v>61</v>
+      </c>
+      <c r="B318" s="11">
+        <v>0.233129</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="9">
+        <v>62</v>
+      </c>
+      <c r="B319" s="11">
+        <v>0.220859</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="9">
+        <v>63</v>
+      </c>
+      <c r="B320" s="11">
+        <v>0.16564400000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="9">
+        <v>66</v>
+      </c>
+      <c r="B321" s="11">
+        <v>0.14723900000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="9">
+        <v>68</v>
+      </c>
+      <c r="B322" s="11">
+        <v>8.5889999999999994E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="9">
+        <v>69</v>
+      </c>
+      <c r="B323" s="11">
+        <v>6.1349999999999998E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="9">
+        <v>75</v>
+      </c>
+      <c r="B324" s="11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D232:X235"/>
+    <mergeCell ref="D222:X225"/>
+    <mergeCell ref="D227:X230"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>